--- a/好玩的网站网址.xlsx
+++ b/好玩的网站网址.xlsx
@@ -117,916 +117,917 @@
     <t>起名</t>
   </si>
   <si>
+    <t>版权音乐曲库</t>
+  </si>
+  <si>
+    <t>www.epidemicsound.com</t>
+  </si>
+  <si>
+    <t>独立游戏</t>
+  </si>
+  <si>
+    <t>https://www.indiexpo.net/</t>
+  </si>
+  <si>
+    <t>学钢琴</t>
+  </si>
+  <si>
+    <t>https://app.flowkey.com.cn/</t>
+  </si>
+  <si>
+    <t>焦段科普</t>
+  </si>
+  <si>
+    <t>https://www.samyanglens.com/en/product/simulator/lens.php</t>
+  </si>
+  <si>
+    <t>全球生活水平</t>
+  </si>
+  <si>
+    <t>https://www.gapminder.org/dollar-street/</t>
+  </si>
+  <si>
+    <t>海</t>
+  </si>
+  <si>
+    <t>https://seaside-station.com/region/hokkaido/</t>
+  </si>
+  <si>
+    <t>标准地图</t>
+  </si>
+  <si>
+    <t>http://bzdt.ch.mnr.gov.cn/index.html</t>
+  </si>
+  <si>
+    <t>色差</t>
+  </si>
+  <si>
+    <t>http://www.cuishuai.cc/game/</t>
+  </si>
+  <si>
+    <t>大像素</t>
+  </si>
+  <si>
+    <t>http://www.bigpixel.cn/index.html</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>https://slidesgo.com/theme/isometric-proposal</t>
+  </si>
+  <si>
+    <t>https://24slides.com/templates/featured</t>
+  </si>
+  <si>
+    <t>https://www.free-powerpoint-templates-design.com/free-powerpoint-templates-design/</t>
+  </si>
+  <si>
+    <t>云</t>
+  </si>
+  <si>
+    <t>https://www.ianfisherart.com/</t>
+  </si>
+  <si>
+    <t>展会</t>
+  </si>
+  <si>
+    <t>http://www.eshow365.com/</t>
+  </si>
+  <si>
+    <t>全历史</t>
+  </si>
+  <si>
+    <t>https://www.allhistory.com/</t>
+  </si>
+  <si>
+    <t>诡秘之主</t>
+  </si>
+  <si>
+    <t>https://www.zcool.com.cn/work/ZNDI0NzUzNzY=.html</t>
+  </si>
+  <si>
+    <t>背景素材</t>
+  </si>
+  <si>
+    <t>http://bg-patterns.com/</t>
+  </si>
+  <si>
+    <t>做音乐</t>
+  </si>
+  <si>
+    <t>https://learningmusic.ableton.com/</t>
+  </si>
+  <si>
+    <t>新媒体导航</t>
+  </si>
+  <si>
+    <t>https://www.kaolamedia.com/</t>
+  </si>
+  <si>
+    <t>AI捏人</t>
+  </si>
+  <si>
+    <t>https://artbreeder.com/</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>https://ncov.dxy.cn/ncovh5/view/pneumonia</t>
+  </si>
+  <si>
+    <t>人类测试</t>
+  </si>
+  <si>
+    <t>https://humanbenchmark.com/</t>
+  </si>
+  <si>
+    <t>音乐分轨</t>
+  </si>
+  <si>
+    <t>https://melody.ml/</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>https://logisticsartproject.com/</t>
+  </si>
+  <si>
+    <t>慕课</t>
+  </si>
+  <si>
+    <t>https://www.icourse163.org/</t>
+  </si>
+  <si>
+    <t>反人类UI</t>
+  </si>
+  <si>
+    <t>https://userinyerface.com/game.html</t>
+  </si>
+  <si>
+    <t>yes/no</t>
+  </si>
+  <si>
+    <t>https://yesno.wtf/</t>
+  </si>
+  <si>
+    <t>老照片上色</t>
+  </si>
+  <si>
+    <t>https://colourise.sg/</t>
+  </si>
+  <si>
+    <t>地球时间</t>
+  </si>
+  <si>
+    <t>http://timelineofearth.com/</t>
+  </si>
+  <si>
+    <t>猫</t>
+  </si>
+  <si>
+    <t>https://bongo.cat/</t>
+  </si>
+  <si>
+    <t>大佬</t>
+  </si>
+  <si>
+    <t>https://neave.com/</t>
+  </si>
+  <si>
+    <t>太鼓达人</t>
+  </si>
+  <si>
+    <t>https://taiko.bui.pm/</t>
+  </si>
+  <si>
+    <t>emm</t>
+  </si>
+  <si>
+    <t>http://www.shushubuyue.net/#</t>
+  </si>
+  <si>
+    <t>全网热门</t>
+  </si>
+  <si>
+    <t>https://tophub.today/</t>
+  </si>
+  <si>
+    <t>数据表</t>
+  </si>
+  <si>
+    <t>https://www.visualcapitalist.com/</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>https://www.msdmanuals.com/zh#mission</t>
+  </si>
+  <si>
+    <t>临时验证码</t>
+  </si>
+  <si>
+    <t>https://www.materialtools.com/?page=1</t>
+  </si>
+  <si>
+    <t>https://temp-mail.org/zh/</t>
+  </si>
+  <si>
+    <t>词云</t>
+  </si>
+  <si>
+    <t>https://www.weiciyun.com/</t>
+  </si>
+  <si>
+    <t>探月</t>
+  </si>
+  <si>
+    <t>http://moon.bao.ac.cn/mul/index/list</t>
+  </si>
+  <si>
+    <t>中国地图</t>
+  </si>
+  <si>
+    <t>https://www.ageeye.cn/</t>
+  </si>
+  <si>
+    <t>解谜</t>
+  </si>
+  <si>
+    <t>http://nazo.one-story.cn/</t>
+  </si>
+  <si>
+    <t>实用</t>
+  </si>
+  <si>
+    <t>全能下视频</t>
+  </si>
+  <si>
+    <t>https://www.urlgot.com/</t>
+  </si>
+  <si>
+    <t>封面下载</t>
+  </si>
+  <si>
+    <t>https://cover.olook.me/</t>
+  </si>
+  <si>
+    <t>小工具集合</t>
+  </si>
+  <si>
+    <t>https://tools.imiku.me/</t>
+  </si>
+  <si>
+    <t>医学微视</t>
+  </si>
+  <si>
+    <t>https://www.mvyxws.com/</t>
+  </si>
+  <si>
+    <t>仿知网</t>
+  </si>
+  <si>
+    <t>https://www.cn-ki.net/</t>
+  </si>
+  <si>
+    <t>自动加字幕</t>
+  </si>
+  <si>
+    <t>https://2zimu.com/#/</t>
+  </si>
+  <si>
+    <t>N卡深度学习</t>
+  </si>
+  <si>
+    <t>https://www.nvidia.com/en-us/research/ai-playground/?fbclid=IwAR2QEjuH4aCYP3SycnKwa_LO36rfmDhulB4WCeY1plGCfofwIU-qf1anBTY</t>
+  </si>
+  <si>
+    <t>渐变图</t>
+  </si>
+  <si>
+    <t>https://www.ls.graphics/meshgradients</t>
+  </si>
+  <si>
+    <t>时差</t>
+  </si>
+  <si>
+    <t>https://everytimezone.com/</t>
+  </si>
+  <si>
+    <t>双色</t>
+  </si>
+  <si>
+    <t>https://duotone.shapefactory.co/?f=f56468&amp;t=27184f&amp;q=_</t>
+  </si>
+  <si>
+    <t>图表</t>
+  </si>
+  <si>
+    <t>https://chartify.io/</t>
+  </si>
+  <si>
+    <t>亚塞</t>
+  </si>
+  <si>
+    <t>https://wangyasai.github.io/</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>listen 1</t>
+  </si>
+  <si>
+    <t>http://listen1.github.io/listen1/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCht8qITGkBvXKsR1Byln-wA/videos</t>
+  </si>
+  <si>
+    <t>电音风格</t>
+  </si>
+  <si>
+    <t>http://music.ishkur.com/</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>创意</t>
+  </si>
+  <si>
+    <t>https://creativemass.cn/#/</t>
+  </si>
+  <si>
+    <t>up主排名</t>
+  </si>
+  <si>
+    <t>https://leptc.github.io/bili/</t>
+  </si>
+  <si>
+    <t>yuzhua</t>
+  </si>
+  <si>
+    <t>https://mj.yuzhua.com/search/3.html</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>日麻</t>
+  </si>
+  <si>
+    <t>https://majsoul.union-game.com/0/</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>https://cavalierchallenge.com/</t>
+  </si>
+  <si>
+    <t>？</t>
+  </si>
+  <si>
+    <t>https://resn.co.nz/#</t>
+  </si>
+  <si>
+    <t>http://www.brakebillsu.com/</t>
+  </si>
+  <si>
+    <t>Grammarly</t>
+  </si>
+  <si>
+    <t>https://app.grammarly.com/</t>
+  </si>
+  <si>
+    <t>机酒</t>
+  </si>
+  <si>
+    <t>https://www.tianxun.com/</t>
+  </si>
+  <si>
+    <t>重力</t>
+  </si>
+  <si>
+    <t>https://codepen.io/akm2/full/rHIsa</t>
+  </si>
+  <si>
+    <t>反向</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.ilidilid.com/ </t>
+  </si>
+  <si>
+    <t>成为批发商</t>
+  </si>
+  <si>
+    <t>https://www.1688.com/</t>
+  </si>
+  <si>
+    <t>龋齿一号</t>
+  </si>
+  <si>
+    <t>http://www.gfxcamp.com/</t>
+  </si>
+  <si>
+    <t>摄影老法师必读</t>
+  </si>
+  <si>
+    <t>https://www.dxomark.com/</t>
+  </si>
+  <si>
+    <t>表情包gif</t>
+  </si>
+  <si>
+    <t>https://sorry.xuty.tk/sorry/</t>
+  </si>
+  <si>
+    <t>学说话</t>
+  </si>
+  <si>
+    <t>https://zh.forvo.com/user/hikari1/pronounced-words/page-2/</t>
+  </si>
+  <si>
+    <t>做网站</t>
+  </si>
+  <si>
+    <t>https://www.wix.com/</t>
+  </si>
+  <si>
+    <t>lkssr.info</t>
+  </si>
+  <si>
+    <t>在线效果</t>
+  </si>
+  <si>
+    <t>https://photomosh.com/</t>
+  </si>
+  <si>
+    <t>学英语</t>
+  </si>
+  <si>
+    <t>https://nexus.leagueoflegends.com/en-us/</t>
+  </si>
+  <si>
+    <t>音游</t>
+  </si>
+  <si>
+    <t>http://ddrkirby.com/games/melody-muncher/melody-muncher.html</t>
+  </si>
+  <si>
+    <t>深网</t>
+  </si>
+  <si>
+    <t>https://bbs.saraba1st.com/2b/thread-1527405-1-1.html</t>
+  </si>
+  <si>
+    <t>deep/dark web</t>
+  </si>
+  <si>
+    <t>https://freenetproject.org/</t>
+  </si>
+  <si>
+    <t>f**king eat</t>
+  </si>
+  <si>
+    <t>https://wtfsigfd.com/#location</t>
+  </si>
+  <si>
+    <t>真实大小</t>
+  </si>
+  <si>
+    <t>https://thetruesize.com</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>http://i-remember.fr/en/</t>
+  </si>
+  <si>
+    <t>https://pos.biborg.com/fr/</t>
+  </si>
+  <si>
+    <t>拍卖</t>
+  </si>
+  <si>
+    <t>https://sf.taobao.com/?spm=a213w.7398504.sfhead2014.2.9vuB5l&amp;current=index</t>
+  </si>
+  <si>
+    <t>http://auction.jd.com/haiguan.html</t>
+  </si>
+  <si>
+    <t>gtmd.bid</t>
+  </si>
+  <si>
+    <t>翻墙</t>
+  </si>
+  <si>
+    <t>https://sscat.cn/?referer=%2F</t>
+  </si>
+  <si>
+    <t>开场</t>
+  </si>
+  <si>
+    <t>世界数据统计</t>
+  </si>
+  <si>
+    <t>http://www.everysecond.io/</t>
+  </si>
+  <si>
+    <t>五花肉</t>
+  </si>
+  <si>
+    <t>https://eitheryoulikebaconoryourewrong.com/</t>
+  </si>
+  <si>
+    <t>实用系</t>
+  </si>
+  <si>
+    <t>免费游戏音效</t>
+  </si>
+  <si>
+    <t>http://www.sonniss.com/gameaudiogdc2017/</t>
+  </si>
+  <si>
+    <t>下载视频</t>
+  </si>
+  <si>
+    <t>youtube1s</t>
+  </si>
+  <si>
+    <t>adobe全系</t>
+  </si>
+  <si>
+    <t>http://adobe.v404.cn/adobe/</t>
+  </si>
+  <si>
+    <t>艺术字</t>
+  </si>
+  <si>
+    <t>http://www.akuziti.com/yw/</t>
+  </si>
+  <si>
+    <t>2倍老婆</t>
+  </si>
+  <si>
+    <t>http://waifu2x.udp.jp/</t>
+  </si>
+  <si>
+    <t>截图搜新番</t>
+  </si>
+  <si>
+    <t>https://whatanime.ga/#</t>
+  </si>
+  <si>
+    <t>自动上色</t>
+  </si>
+  <si>
+    <t>http://paintschainer.preferred.tech/index_zh.html</t>
+  </si>
+  <si>
+    <t>自动生成女朋友</t>
+  </si>
+  <si>
+    <t>https://hiroshiba.github.io/girl_friend_factory/index.html</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>https://www.chuangkit.com/dc.html</t>
+  </si>
+  <si>
+    <t>简笔画</t>
+  </si>
+  <si>
+    <t>https://aiexperiments.withgoogle.com/autodraw</t>
+  </si>
+  <si>
+    <t>wuxiaworld</t>
+  </si>
+  <si>
+    <t>http://www.wuxiaworld.com/</t>
+  </si>
+  <si>
+    <t>gif</t>
+  </si>
+  <si>
+    <t>https://giphy.com/</t>
+  </si>
+  <si>
+    <t>逼格</t>
+  </si>
+  <si>
+    <t>秘密</t>
+  </si>
+  <si>
+    <t>http://soulapartment.net/bin/index.php</t>
+  </si>
+  <si>
+    <t>独立音乐</t>
+  </si>
+  <si>
+    <t>http://www.luoo.net/essays/</t>
+  </si>
+  <si>
+    <t>http://www.madeon.fr/adventuremachine/?t=1,10,26,35</t>
+  </si>
+  <si>
+    <t>背景音合成器</t>
+  </si>
+  <si>
+    <t>http://asoftmurmur.com/</t>
+  </si>
+  <si>
+    <t>摄像头+梦境</t>
+  </si>
+  <si>
+    <t>http://anasomnia.com/</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>http://isnowillegal.com/?plus%201s</t>
+  </si>
+  <si>
+    <t>全球电台</t>
+  </si>
+  <si>
+    <t>http://radio.garden/live/tokyo/j-idols-project-radio/</t>
+  </si>
+  <si>
+    <t>http://www.ostagram.ru/lenta?locale=en</t>
+  </si>
+  <si>
+    <t>世界飞机</t>
+  </si>
+  <si>
+    <t>https://www.flightradar24.com/PRBGT/d0da2bf</t>
+  </si>
+  <si>
+    <t>png</t>
+  </si>
+  <si>
+    <t>http://www.pngall.com/thug-life-png</t>
+  </si>
+  <si>
+    <t>在线生成白浊液</t>
+  </si>
+  <si>
+    <t>http://mygamestudio.x.fc2.com/bukkake/</t>
+  </si>
+  <si>
+    <t>空当接龙</t>
+  </si>
+  <si>
+    <t>http://mrdoob.com/lab/javascript/effects/solitaire/?url_type=39&amp;object_type=webpage&amp;pos=1&amp;url_type=39&amp;object_type=webpage&amp;pos=1</t>
+  </si>
+  <si>
+    <t>http://nico-nico-ni.com/</t>
+  </si>
+  <si>
+    <t>http://internet-map.net/</t>
+  </si>
+  <si>
+    <t>钢琴</t>
+  </si>
+  <si>
+    <t>http://touchpianist.com/</t>
+  </si>
+  <si>
+    <t>搜图</t>
+  </si>
+  <si>
+    <t>http://iqdb.org/</t>
+  </si>
+  <si>
+    <t>http://saucenao.com/index.php</t>
+  </si>
+  <si>
+    <t>http://safebooru.org/</t>
+  </si>
+  <si>
+    <t>环境</t>
+  </si>
+  <si>
+    <t>http://www.rainymood.com/</t>
+  </si>
+  <si>
+    <t>http://www.ambient-mixer.com/</t>
+  </si>
+  <si>
+    <t>不明觉厉</t>
+  </si>
+  <si>
+    <t>http://mrdoob.com/#/157/spin_painter</t>
+  </si>
+  <si>
+    <t>http://www.ro.me/</t>
+  </si>
+  <si>
+    <t>http://middle-earth.thehobbit.com/map</t>
+  </si>
+  <si>
+    <t>http://fff.cmiscm.com/#!/section/planttrees</t>
+  </si>
+  <si>
+    <t>http://weavesilk.com/</t>
+  </si>
+  <si>
+    <t>噫</t>
+  </si>
+  <si>
+    <t>http://www.theuselessweb.com/</t>
+  </si>
+  <si>
+    <t>风景</t>
+  </si>
+  <si>
+    <t>http://www.airpano.com/?n=10&amp;sort_by=&amp;page=1</t>
+  </si>
+  <si>
+    <t>制作</t>
+  </si>
+  <si>
+    <t>http://threejs.org/http://www.instructables.com/</t>
+  </si>
+  <si>
+    <t>miku</t>
+  </si>
+  <si>
+    <t>http://johnsu.deviantart.com/art/Halfne-Miku-Studio-396850314</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1szQ7YDGdXw&amp;feature=youtu.be</t>
+  </si>
+  <si>
+    <t>http://www.beatstage.com/</t>
+  </si>
+  <si>
+    <t>http://www.m2ustudio.com/index.html#album-tracks</t>
+  </si>
+  <si>
+    <t>水效果</t>
+  </si>
+  <si>
+    <t>http://watereffect.net/index.php</t>
+  </si>
+  <si>
+    <t>猜地点</t>
+  </si>
+  <si>
+    <t>https://geoguessr.com/</t>
+  </si>
+  <si>
+    <t>2ch</t>
+  </si>
+  <si>
+    <t>http://kanquwen.com/</t>
+  </si>
+  <si>
+    <t>音乐素材</t>
+  </si>
+  <si>
+    <t>http://www.hmix.net/music_gallery/music_top.htm</t>
+  </si>
+  <si>
+    <t>画</t>
+  </si>
+  <si>
+    <t>http://en.gallerix.ru/</t>
+  </si>
+  <si>
+    <t>制服</t>
+  </si>
+  <si>
+    <t>http://www.seihuku-zukan.com/index.htm</t>
+  </si>
+  <si>
+    <t>http://uniform.wingzero.tw/</t>
+  </si>
+  <si>
+    <t>http://www.wuxiaworld.com/cdindex-html/</t>
+  </si>
+  <si>
+    <t>http://www.baka-tsuki.org/project/index.php?title=Main_Page</t>
+  </si>
+  <si>
+    <t>剁手</t>
+  </si>
+  <si>
+    <t>https://fancy.com/</t>
+  </si>
+  <si>
+    <t>http://www.farfetch.com/cn/shopping/men/items.aspx?ffref=hp_gender</t>
+  </si>
+  <si>
+    <t>http://www.chiphell.com/</t>
+  </si>
+  <si>
+    <t>电音</t>
+  </si>
+  <si>
+    <t>http://techno.org/electronic-music-guide/</t>
+  </si>
+  <si>
+    <t>https://the.wubmachine.com/</t>
+  </si>
+  <si>
+    <t>捏人</t>
+  </si>
+  <si>
+    <t>http://www.dreamself.me/clothes.php?action=view&amp;id=0&amp;c=1</t>
+  </si>
+  <si>
+    <t>gal</t>
+  </si>
+  <si>
+    <t>http://polka-dot.co/lzbx.php</t>
+  </si>
+  <si>
+    <t>搬砖</t>
+  </si>
+  <si>
+    <t>http://www.fotojet.com/</t>
+  </si>
+  <si>
+    <t>https://habitica.com/static/front</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>http://drrr.com/lounge</t>
+  </si>
+  <si>
+    <t>图站</t>
+  </si>
+  <si>
+    <t>https://anime-pictures.net/</t>
+  </si>
+  <si>
+    <t>与佛论禅</t>
+  </si>
+  <si>
+    <t>http://www.ptxz.com/fo/</t>
+  </si>
+  <si>
+    <t>http://haru.ocv.me/</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>http://www.wolframalpha.com/</t>
+  </si>
+  <si>
+    <t>https://edialogue.org/index/zh-CN</t>
+  </si>
+  <si>
+    <t>https://dribbble.com/wagerfield</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>http://mowned.com/</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>http://www.flashearth.com/</t>
+  </si>
+  <si>
+    <t>北方</t>
+  </si>
+  <si>
+    <t>http://wiki.joyme.com/jc/%E5%8C%97%E6%96%B9%E9%85%B1%E8%A1%A8%E6%83%85</t>
+  </si>
+  <si>
+    <t>http://www.smzdm.com/</t>
+  </si>
+  <si>
+    <t>http://www.iliangcang.com/i/home/</t>
+  </si>
+  <si>
+    <t>菜板狂魔</t>
+  </si>
+  <si>
+    <t>http://mtmwood.com/en</t>
+  </si>
+  <si>
+    <t>http://youquhome.com/page/3/</t>
+  </si>
+  <si>
     <t>https://www.behindthename.com/</t>
-  </si>
-  <si>
-    <t>版权音乐曲库</t>
-  </si>
-  <si>
-    <t>www.epidemicsound.com</t>
-  </si>
-  <si>
-    <t>独立游戏</t>
-  </si>
-  <si>
-    <t>https://www.indiexpo.net/</t>
-  </si>
-  <si>
-    <t>学钢琴</t>
-  </si>
-  <si>
-    <t>https://app.flowkey.com.cn/</t>
-  </si>
-  <si>
-    <t>焦段科普</t>
-  </si>
-  <si>
-    <t>https://www.samyanglens.com/en/product/simulator/lens.php</t>
-  </si>
-  <si>
-    <t>全球生活水平</t>
-  </si>
-  <si>
-    <t>https://www.gapminder.org/dollar-street/</t>
-  </si>
-  <si>
-    <t>海</t>
-  </si>
-  <si>
-    <t>https://seaside-station.com/region/hokkaido/</t>
-  </si>
-  <si>
-    <t>标准地图</t>
-  </si>
-  <si>
-    <t>http://bzdt.ch.mnr.gov.cn/index.html</t>
-  </si>
-  <si>
-    <t>色差</t>
-  </si>
-  <si>
-    <t>http://www.cuishuai.cc/game/</t>
-  </si>
-  <si>
-    <t>大像素</t>
-  </si>
-  <si>
-    <t>http://www.bigpixel.cn/index.html</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>https://slidesgo.com/theme/isometric-proposal</t>
-  </si>
-  <si>
-    <t>https://24slides.com/templates/featured</t>
-  </si>
-  <si>
-    <t>https://www.free-powerpoint-templates-design.com/free-powerpoint-templates-design/</t>
-  </si>
-  <si>
-    <t>云</t>
-  </si>
-  <si>
-    <t>https://www.ianfisherart.com/</t>
-  </si>
-  <si>
-    <t>展会</t>
-  </si>
-  <si>
-    <t>http://www.eshow365.com/</t>
-  </si>
-  <si>
-    <t>全历史</t>
-  </si>
-  <si>
-    <t>https://www.allhistory.com/</t>
-  </si>
-  <si>
-    <t>诡秘之主</t>
-  </si>
-  <si>
-    <t>https://www.zcool.com.cn/work/ZNDI0NzUzNzY=.html</t>
-  </si>
-  <si>
-    <t>背景素材</t>
-  </si>
-  <si>
-    <t>http://bg-patterns.com/</t>
-  </si>
-  <si>
-    <t>做音乐</t>
-  </si>
-  <si>
-    <t>https://learningmusic.ableton.com/</t>
-  </si>
-  <si>
-    <t>新媒体导航</t>
-  </si>
-  <si>
-    <t>https://www.kaolamedia.com/</t>
-  </si>
-  <si>
-    <t>AI捏人</t>
-  </si>
-  <si>
-    <t>https://artbreeder.com/</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>https://ncov.dxy.cn/ncovh5/view/pneumonia</t>
-  </si>
-  <si>
-    <t>人类测试</t>
-  </si>
-  <si>
-    <t>https://humanbenchmark.com/</t>
-  </si>
-  <si>
-    <t>音乐分轨</t>
-  </si>
-  <si>
-    <t>https://melody.ml/</t>
-  </si>
-  <si>
-    <t>物流</t>
-  </si>
-  <si>
-    <t>https://logisticsartproject.com/</t>
-  </si>
-  <si>
-    <t>慕课</t>
-  </si>
-  <si>
-    <t>https://www.icourse163.org/</t>
-  </si>
-  <si>
-    <t>反人类UI</t>
-  </si>
-  <si>
-    <t>https://userinyerface.com/game.html</t>
-  </si>
-  <si>
-    <t>yes/no</t>
-  </si>
-  <si>
-    <t>https://yesno.wtf/</t>
-  </si>
-  <si>
-    <t>老照片上色</t>
-  </si>
-  <si>
-    <t>https://colourise.sg/</t>
-  </si>
-  <si>
-    <t>地球时间</t>
-  </si>
-  <si>
-    <t>http://timelineofearth.com/</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>https://bongo.cat/</t>
-  </si>
-  <si>
-    <t>大佬</t>
-  </si>
-  <si>
-    <t>https://neave.com/</t>
-  </si>
-  <si>
-    <t>太鼓达人</t>
-  </si>
-  <si>
-    <t>https://taiko.bui.pm/</t>
-  </si>
-  <si>
-    <t>emm</t>
-  </si>
-  <si>
-    <t>http://www.shushubuyue.net/#</t>
-  </si>
-  <si>
-    <t>全网热门</t>
-  </si>
-  <si>
-    <t>https://tophub.today/</t>
-  </si>
-  <si>
-    <t>数据表</t>
-  </si>
-  <si>
-    <t>https://www.visualcapitalist.com/</t>
-  </si>
-  <si>
-    <t>医疗</t>
-  </si>
-  <si>
-    <t>https://www.msdmanuals.com/zh#mission</t>
-  </si>
-  <si>
-    <t>临时验证码</t>
-  </si>
-  <si>
-    <t>https://www.materialtools.com/?page=1</t>
-  </si>
-  <si>
-    <t>https://temp-mail.org/zh/</t>
-  </si>
-  <si>
-    <t>词云</t>
-  </si>
-  <si>
-    <t>https://www.weiciyun.com/</t>
-  </si>
-  <si>
-    <t>探月</t>
-  </si>
-  <si>
-    <t>http://moon.bao.ac.cn/mul/index/list</t>
-  </si>
-  <si>
-    <t>中国地图</t>
-  </si>
-  <si>
-    <t>https://www.ageeye.cn/</t>
-  </si>
-  <si>
-    <t>解谜</t>
-  </si>
-  <si>
-    <t>http://nazo.one-story.cn/</t>
-  </si>
-  <si>
-    <t>实用</t>
-  </si>
-  <si>
-    <t>全能下视频</t>
-  </si>
-  <si>
-    <t>https://www.urlgot.com/</t>
-  </si>
-  <si>
-    <t>封面下载</t>
-  </si>
-  <si>
-    <t>https://cover.olook.me/</t>
-  </si>
-  <si>
-    <t>小工具集合</t>
-  </si>
-  <si>
-    <t>https://tools.imiku.me/</t>
-  </si>
-  <si>
-    <t>医学微视</t>
-  </si>
-  <si>
-    <t>https://www.mvyxws.com/</t>
-  </si>
-  <si>
-    <t>仿知网</t>
-  </si>
-  <si>
-    <t>https://www.cn-ki.net/</t>
-  </si>
-  <si>
-    <t>自动加字幕</t>
-  </si>
-  <si>
-    <t>https://2zimu.com/#/</t>
-  </si>
-  <si>
-    <t>N卡深度学习</t>
-  </si>
-  <si>
-    <t>https://www.nvidia.com/en-us/research/ai-playground/?fbclid=IwAR2QEjuH4aCYP3SycnKwa_LO36rfmDhulB4WCeY1plGCfofwIU-qf1anBTY</t>
-  </si>
-  <si>
-    <t>渐变图</t>
-  </si>
-  <si>
-    <t>https://www.ls.graphics/meshgradients</t>
-  </si>
-  <si>
-    <t>时差</t>
-  </si>
-  <si>
-    <t>https://everytimezone.com/</t>
-  </si>
-  <si>
-    <t>双色</t>
-  </si>
-  <si>
-    <t>https://duotone.shapefactory.co/?f=f56468&amp;t=27184f&amp;q=_</t>
-  </si>
-  <si>
-    <t>图表</t>
-  </si>
-  <si>
-    <t>https://chartify.io/</t>
-  </si>
-  <si>
-    <t>亚塞</t>
-  </si>
-  <si>
-    <t>https://wangyasai.github.io/</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>listen 1</t>
-  </si>
-  <si>
-    <t>http://listen1.github.io/listen1/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/channel/UCht8qITGkBvXKsR1Byln-wA/videos</t>
-  </si>
-  <si>
-    <t>电音风格</t>
-  </si>
-  <si>
-    <t>http://music.ishkur.com/</t>
-  </si>
-  <si>
-    <t>信息</t>
-  </si>
-  <si>
-    <t>创意</t>
-  </si>
-  <si>
-    <t>https://creativemass.cn/#/</t>
-  </si>
-  <si>
-    <t>up主排名</t>
-  </si>
-  <si>
-    <t>https://leptc.github.io/bili/</t>
-  </si>
-  <si>
-    <t>yuzhua</t>
-  </si>
-  <si>
-    <t>https://mj.yuzhua.com/search/3.html</t>
-  </si>
-  <si>
-    <t>游戏</t>
-  </si>
-  <si>
-    <t>日麻</t>
-  </si>
-  <si>
-    <t>https://majsoul.union-game.com/0/</t>
-  </si>
-  <si>
-    <t>马</t>
-  </si>
-  <si>
-    <t>https://cavalierchallenge.com/</t>
-  </si>
-  <si>
-    <t>？</t>
-  </si>
-  <si>
-    <t>https://resn.co.nz/#</t>
-  </si>
-  <si>
-    <t>http://www.brakebillsu.com/</t>
-  </si>
-  <si>
-    <t>Grammarly</t>
-  </si>
-  <si>
-    <t>https://app.grammarly.com/</t>
-  </si>
-  <si>
-    <t>机酒</t>
-  </si>
-  <si>
-    <t>https://www.tianxun.com/</t>
-  </si>
-  <si>
-    <t>重力</t>
-  </si>
-  <si>
-    <t>https://codepen.io/akm2/full/rHIsa</t>
-  </si>
-  <si>
-    <t>反向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.ilidilid.com/ </t>
-  </si>
-  <si>
-    <t>成为批发商</t>
-  </si>
-  <si>
-    <t>https://www.1688.com/</t>
-  </si>
-  <si>
-    <t>龋齿一号</t>
-  </si>
-  <si>
-    <t>http://www.gfxcamp.com/</t>
-  </si>
-  <si>
-    <t>摄影老法师必读</t>
-  </si>
-  <si>
-    <t>https://www.dxomark.com/</t>
-  </si>
-  <si>
-    <t>表情包gif</t>
-  </si>
-  <si>
-    <t>https://sorry.xuty.tk/sorry/</t>
-  </si>
-  <si>
-    <t>学说话</t>
-  </si>
-  <si>
-    <t>https://zh.forvo.com/user/hikari1/pronounced-words/page-2/</t>
-  </si>
-  <si>
-    <t>做网站</t>
-  </si>
-  <si>
-    <t>https://www.wix.com/</t>
-  </si>
-  <si>
-    <t>lkssr.info</t>
-  </si>
-  <si>
-    <t>在线效果</t>
-  </si>
-  <si>
-    <t>https://photomosh.com/</t>
-  </si>
-  <si>
-    <t>学英语</t>
-  </si>
-  <si>
-    <t>https://nexus.leagueoflegends.com/en-us/</t>
-  </si>
-  <si>
-    <t>音游</t>
-  </si>
-  <si>
-    <t>http://ddrkirby.com/games/melody-muncher/melody-muncher.html</t>
-  </si>
-  <si>
-    <t>深网</t>
-  </si>
-  <si>
-    <t>https://bbs.saraba1st.com/2b/thread-1527405-1-1.html</t>
-  </si>
-  <si>
-    <t>deep/dark web</t>
-  </si>
-  <si>
-    <t>https://freenetproject.org/</t>
-  </si>
-  <si>
-    <t>f**king eat</t>
-  </si>
-  <si>
-    <t>https://wtfsigfd.com/#location</t>
-  </si>
-  <si>
-    <t>真实大小</t>
-  </si>
-  <si>
-    <t>https://thetruesize.com</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>http://i-remember.fr/en/</t>
-  </si>
-  <si>
-    <t>https://pos.biborg.com/fr/</t>
-  </si>
-  <si>
-    <t>拍卖</t>
-  </si>
-  <si>
-    <t>https://sf.taobao.com/?spm=a213w.7398504.sfhead2014.2.9vuB5l&amp;current=index</t>
-  </si>
-  <si>
-    <t>http://auction.jd.com/haiguan.html</t>
-  </si>
-  <si>
-    <t>gtmd.bid</t>
-  </si>
-  <si>
-    <t>翻墙</t>
-  </si>
-  <si>
-    <t>https://sscat.cn/?referer=%2F</t>
-  </si>
-  <si>
-    <t>开场</t>
-  </si>
-  <si>
-    <t>世界数据统计</t>
-  </si>
-  <si>
-    <t>http://www.everysecond.io/</t>
-  </si>
-  <si>
-    <t>五花肉</t>
-  </si>
-  <si>
-    <t>https://eitheryoulikebaconoryourewrong.com/</t>
-  </si>
-  <si>
-    <t>实用系</t>
-  </si>
-  <si>
-    <t>免费游戏音效</t>
-  </si>
-  <si>
-    <t>http://www.sonniss.com/gameaudiogdc2017/</t>
-  </si>
-  <si>
-    <t>下载视频</t>
-  </si>
-  <si>
-    <t>youtube1s</t>
-  </si>
-  <si>
-    <t>adobe全系</t>
-  </si>
-  <si>
-    <t>http://adobe.v404.cn/adobe/</t>
-  </si>
-  <si>
-    <t>艺术字</t>
-  </si>
-  <si>
-    <t>http://www.akuziti.com/yw/</t>
-  </si>
-  <si>
-    <t>2倍老婆</t>
-  </si>
-  <si>
-    <t>http://waifu2x.udp.jp/</t>
-  </si>
-  <si>
-    <t>截图搜新番</t>
-  </si>
-  <si>
-    <t>https://whatanime.ga/#</t>
-  </si>
-  <si>
-    <t>自动上色</t>
-  </si>
-  <si>
-    <t>http://paintschainer.preferred.tech/index_zh.html</t>
-  </si>
-  <si>
-    <t>自动生成女朋友</t>
-  </si>
-  <si>
-    <t>https://hiroshiba.github.io/girl_friend_factory/index.html</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>https://www.chuangkit.com/dc.html</t>
-  </si>
-  <si>
-    <t>简笔画</t>
-  </si>
-  <si>
-    <t>https://aiexperiments.withgoogle.com/autodraw</t>
-  </si>
-  <si>
-    <t>wuxiaworld</t>
-  </si>
-  <si>
-    <t>http://www.wuxiaworld.com/</t>
-  </si>
-  <si>
-    <t>gif</t>
-  </si>
-  <si>
-    <t>https://giphy.com/</t>
-  </si>
-  <si>
-    <t>逼格</t>
-  </si>
-  <si>
-    <t>秘密</t>
-  </si>
-  <si>
-    <t>http://soulapartment.net/bin/index.php</t>
-  </si>
-  <si>
-    <t>独立音乐</t>
-  </si>
-  <si>
-    <t>http://www.luoo.net/essays/</t>
-  </si>
-  <si>
-    <t>http://www.madeon.fr/adventuremachine/?t=1,10,26,35</t>
-  </si>
-  <si>
-    <t>背景音合成器</t>
-  </si>
-  <si>
-    <t>http://asoftmurmur.com/</t>
-  </si>
-  <si>
-    <t>摄像头+梦境</t>
-  </si>
-  <si>
-    <t>http://anasomnia.com/</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>http://isnowillegal.com/?plus%201s</t>
-  </si>
-  <si>
-    <t>全球电台</t>
-  </si>
-  <si>
-    <t>http://radio.garden/live/tokyo/j-idols-project-radio/</t>
-  </si>
-  <si>
-    <t>http://www.ostagram.ru/lenta?locale=en</t>
-  </si>
-  <si>
-    <t>世界飞机</t>
-  </si>
-  <si>
-    <t>https://www.flightradar24.com/PRBGT/d0da2bf</t>
-  </si>
-  <si>
-    <t>png</t>
-  </si>
-  <si>
-    <t>http://www.pngall.com/thug-life-png</t>
-  </si>
-  <si>
-    <t>在线生成白浊液</t>
-  </si>
-  <si>
-    <t>http://mygamestudio.x.fc2.com/bukkake/</t>
-  </si>
-  <si>
-    <t>空当接龙</t>
-  </si>
-  <si>
-    <t>http://mrdoob.com/lab/javascript/effects/solitaire/?url_type=39&amp;object_type=webpage&amp;pos=1&amp;url_type=39&amp;object_type=webpage&amp;pos=1</t>
-  </si>
-  <si>
-    <t>http://nico-nico-ni.com/</t>
-  </si>
-  <si>
-    <t>http://internet-map.net/</t>
-  </si>
-  <si>
-    <t>钢琴</t>
-  </si>
-  <si>
-    <t>http://touchpianist.com/</t>
-  </si>
-  <si>
-    <t>搜图</t>
-  </si>
-  <si>
-    <t>http://iqdb.org/</t>
-  </si>
-  <si>
-    <t>http://saucenao.com/index.php</t>
-  </si>
-  <si>
-    <t>http://safebooru.org/</t>
-  </si>
-  <si>
-    <t>环境</t>
-  </si>
-  <si>
-    <t>http://www.rainymood.com/</t>
-  </si>
-  <si>
-    <t>http://www.ambient-mixer.com/</t>
-  </si>
-  <si>
-    <t>不明觉厉</t>
-  </si>
-  <si>
-    <t>http://mrdoob.com/#/157/spin_painter</t>
-  </si>
-  <si>
-    <t>http://www.ro.me/</t>
-  </si>
-  <si>
-    <t>http://middle-earth.thehobbit.com/map</t>
-  </si>
-  <si>
-    <t>http://fff.cmiscm.com/#!/section/planttrees</t>
-  </si>
-  <si>
-    <t>http://weavesilk.com/</t>
-  </si>
-  <si>
-    <t>噫</t>
-  </si>
-  <si>
-    <t>http://www.theuselessweb.com/</t>
-  </si>
-  <si>
-    <t>风景</t>
-  </si>
-  <si>
-    <t>http://www.airpano.com/?n=10&amp;sort_by=&amp;page=1</t>
-  </si>
-  <si>
-    <t>制作</t>
-  </si>
-  <si>
-    <t>http://threejs.org/http://www.instructables.com/</t>
-  </si>
-  <si>
-    <t>miku</t>
-  </si>
-  <si>
-    <t>http://johnsu.deviantart.com/art/Halfne-Miku-Studio-396850314</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1szQ7YDGdXw&amp;feature=youtu.be</t>
-  </si>
-  <si>
-    <t>http://www.beatstage.com/</t>
-  </si>
-  <si>
-    <t>http://www.m2ustudio.com/index.html#album-tracks</t>
-  </si>
-  <si>
-    <t>水效果</t>
-  </si>
-  <si>
-    <t>http://watereffect.net/index.php</t>
-  </si>
-  <si>
-    <t>猜地点</t>
-  </si>
-  <si>
-    <t>https://geoguessr.com/</t>
-  </si>
-  <si>
-    <t>2ch</t>
-  </si>
-  <si>
-    <t>http://kanquwen.com/</t>
-  </si>
-  <si>
-    <t>音乐素材</t>
-  </si>
-  <si>
-    <t>http://www.hmix.net/music_gallery/music_top.htm</t>
-  </si>
-  <si>
-    <t>画</t>
-  </si>
-  <si>
-    <t>http://en.gallerix.ru/</t>
-  </si>
-  <si>
-    <t>制服</t>
-  </si>
-  <si>
-    <t>http://www.seihuku-zukan.com/index.htm</t>
-  </si>
-  <si>
-    <t>http://uniform.wingzero.tw/</t>
-  </si>
-  <si>
-    <t>http://www.wuxiaworld.com/cdindex-html/</t>
-  </si>
-  <si>
-    <t>http://www.baka-tsuki.org/project/index.php?title=Main_Page</t>
-  </si>
-  <si>
-    <t>剁手</t>
-  </si>
-  <si>
-    <t>https://fancy.com/</t>
-  </si>
-  <si>
-    <t>http://www.farfetch.com/cn/shopping/men/items.aspx?ffref=hp_gender</t>
-  </si>
-  <si>
-    <t>http://www.chiphell.com/</t>
-  </si>
-  <si>
-    <t>电音</t>
-  </si>
-  <si>
-    <t>http://techno.org/electronic-music-guide/</t>
-  </si>
-  <si>
-    <t>https://the.wubmachine.com/</t>
-  </si>
-  <si>
-    <t>捏人</t>
-  </si>
-  <si>
-    <t>http://www.dreamself.me/clothes.php?action=view&amp;id=0&amp;c=1</t>
-  </si>
-  <si>
-    <t>gal</t>
-  </si>
-  <si>
-    <t>http://polka-dot.co/lzbx.php</t>
-  </si>
-  <si>
-    <t>搬砖</t>
-  </si>
-  <si>
-    <t>http://www.fotojet.com/</t>
-  </si>
-  <si>
-    <t>https://habitica.com/static/front</t>
-  </si>
-  <si>
-    <t>聊天</t>
-  </si>
-  <si>
-    <t>http://drrr.com/lounge</t>
-  </si>
-  <si>
-    <t>图站</t>
-  </si>
-  <si>
-    <t>https://anime-pictures.net/</t>
-  </si>
-  <si>
-    <t>与佛论禅</t>
-  </si>
-  <si>
-    <t>http://www.ptxz.com/fo/</t>
-  </si>
-  <si>
-    <t>http://haru.ocv.me/</t>
-  </si>
-  <si>
-    <t>学习</t>
-  </si>
-  <si>
-    <t>http://www.wolframalpha.com/</t>
-  </si>
-  <si>
-    <t>https://edialogue.org/index/zh-CN</t>
-  </si>
-  <si>
-    <t>https://dribbble.com/wagerfield</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>http://mowned.com/</t>
-  </si>
-  <si>
-    <t>GPS</t>
-  </si>
-  <si>
-    <t>http://www.flashearth.com/</t>
-  </si>
-  <si>
-    <t>北方</t>
-  </si>
-  <si>
-    <t>http://wiki.joyme.com/jc/%E5%8C%97%E6%96%B9%E9%85%B1%E8%A1%A8%E6%83%85</t>
-  </si>
-  <si>
-    <t>http://www.smzdm.com/</t>
-  </si>
-  <si>
-    <t>http://www.iliangcang.com/i/home/</t>
-  </si>
-  <si>
-    <t>菜板狂魔</t>
-  </si>
-  <si>
-    <t>http://mtmwood.com/en</t>
-  </si>
-  <si>
-    <t>http://youquhome.com/page/3/</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1050,6 +1051,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1058,6 +1060,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1087,6 +1090,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1418,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -1559,71 +1563,71 @@
         <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1657,7 @@
     <hyperlink ref="B11" r:id="rId22" tooltip="https://yanderify.com/"/>
     <hyperlink ref="B12" r:id="rId23" tooltip="https://lab.magiconch.com/nbnhhsh/"/>
     <hyperlink ref="B13" r:id="rId24" tooltip="https://zh.wikihow.com/%E9%A6%96%E9%A1%B5"/>
-    <hyperlink ref="B16" r:id="rId25" tooltip="https://www.behindthename.com/"/>
+    <hyperlink ref="B16" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1678,80 +1682,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1759,181 +1763,181 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1970,7 @@
     <hyperlink ref="B24" r:id="rId25" tooltip="http://www.shushubuyue.net/#"/>
     <hyperlink ref="B25" r:id="rId26" tooltip="https://tophub.today/"/>
     <hyperlink ref="B26" r:id="rId27" tooltip="https://www.visualcapitalist.com/"/>
-    <hyperlink ref="B27" r:id="rId28" tooltip="https://www.msdmanuals.com/zh#mission"/>
+    <hyperlink ref="B27" r:id="rId28" location="mission" tooltip="https://www.msdmanuals.com/zh#mission"/>
     <hyperlink ref="B28" r:id="rId29" tooltip="https://www.materialtools.com/?page=1"/>
     <hyperlink ref="C2" r:id="rId30" tooltip="https://24slides.com/templates/featured"/>
     <hyperlink ref="D2" r:id="rId31" tooltip="https://www.free-powerpoint-templates-design.com/free-powerpoint-templates-design/"/>
@@ -1995,112 +1999,112 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2110,31 +2114,31 @@
     </row>
     <row r="14" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2144,31 +2148,31 @@
     </row>
     <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -2178,58 +2182,58 @@
     </row>
     <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2238,7 +2242,7 @@
     <hyperlink ref="C1" r:id="rId1" tooltip="https://www.urlgot.com/"/>
     <hyperlink ref="C3" r:id="rId2" tooltip="https://tools.imiku.me/"/>
     <hyperlink ref="C7" r:id="rId3" tooltip="https://www.nvidia.com/en-us/research/ai-playground/?fbclid=IwAR2QEjuH4aCYP3SycnKwa_LO36rfmDhulB4WCeY1plGCfofwIU-qf1anBTY"/>
-    <hyperlink ref="C6" r:id="rId4" tooltip="https://2zimu.com/#/"/>
+    <hyperlink ref="C6" r:id="rId4" location="/" tooltip="https://2zimu.com/#/"/>
     <hyperlink ref="C4" r:id="rId5" tooltip="https://www.mvyxws.com/"/>
     <hyperlink ref="C5" r:id="rId6" tooltip="https://www.cn-ki.net/"/>
     <hyperlink ref="C19" r:id="rId7" tooltip="https://leptc.github.io/bili/"/>
@@ -2247,7 +2251,7 @@
     <hyperlink ref="C26" r:id="rId10" tooltip="https://app.grammarly.com/"/>
     <hyperlink ref="C14" r:id="rId11" tooltip="http://listen1.github.io/listen1/"/>
     <hyperlink ref="C10" r:id="rId12" tooltip="https://duotone.shapefactory.co/?f=f56468&amp;t=27184f&amp;q=_"/>
-    <hyperlink ref="C18" r:id="rId13" tooltip="https://creativemass.cn/#/"/>
+    <hyperlink ref="C18" r:id="rId13" location="/" tooltip="https://creativemass.cn/#/"/>
     <hyperlink ref="C2" r:id="rId14" tooltip="https://cover.olook.me/"/>
     <hyperlink ref="C20" r:id="rId15" tooltip="https://mj.yuzhua.com/search/3.html"/>
     <hyperlink ref="C15" r:id="rId16" tooltip="https://www.youtube.com/channel/UCht8qITGkBvXKsR1Byln-wA/videos"/>
@@ -2283,157 +2287,157 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>183</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2445,7 +2449,7 @@
     <hyperlink ref="B7" r:id="rId4"/>
     <hyperlink ref="B13" r:id="rId5"/>
     <hyperlink ref="B9" r:id="rId6"/>
-    <hyperlink ref="B14" r:id="rId7"/>
+    <hyperlink ref="B14" r:id="rId7" location="location"/>
     <hyperlink ref="B1" r:id="rId8" tooltip="https://codepen.io/akm2/full/rHIsa"/>
     <hyperlink ref="B2" r:id="rId9"/>
     <hyperlink ref="B15" r:id="rId10"/>
@@ -2480,31 +2484,31 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2520,13 +2524,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>211</v>
       </c>
       <c r="D6" s="1">
         <v>2016</v>
@@ -2534,100 +2538,100 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>222</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>223</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2643,109 +2647,109 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>254</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2802,347 +2806,347 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
